--- a/academias/Cultura Digital - Estadisticos 20242.xlsx
+++ b/academias/Cultura Digital - Estadisticos 20242.xlsx
@@ -1089,25 +1089,25 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="J2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1124,25 +1124,25 @@
         <v>49</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>22.4</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="J3">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1156,25 +1156,25 @@
         <v>80</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="J4">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1258,25 +1258,25 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>5.6</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1293,25 +1293,25 @@
         <v>39</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J8">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1328,25 +1328,25 @@
         <v>39</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F9">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="J9">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1363,25 +1363,25 @@
         <v>38</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <v>2.6</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J10">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1398,25 +1398,25 @@
         <v>28</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F11">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>3.6</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="J11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1433,25 +1433,25 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1468,25 +1468,25 @@
         <v>30</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>93.3</v>
       </c>
       <c r="H13" s="1">
-        <v>100</v>
+        <v>6.7</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1503,25 +1503,25 @@
         <v>11</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>81.8</v>
       </c>
       <c r="H14" s="1">
-        <v>100</v>
+        <v>18.2</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J14">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1535,25 +1535,25 @@
         <v>244</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="F15">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>96.7</v>
       </c>
       <c r="H15" s="1">
-        <v>100</v>
+        <v>3.3</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J15">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1564,25 +1564,25 @@
         <v>359</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="F16">
-        <v>359</v>
+        <v>63</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="H16" s="1">
-        <v>100</v>
+        <v>17.5</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J16">
-        <v>359</v>
+        <v>35</v>
       </c>
       <c r="K16" s="1">
-        <v>100</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1653,19 +1653,19 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1">
-        <v>74.2</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1">
-        <v>25.8</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>22.4</v>
       </c>
       <c r="I3" s="2">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1720,19 +1720,19 @@
         <v>80</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1">
-        <v>76.2</v>
+        <v>75</v>
       </c>
       <c r="H4" s="1">
-        <v>23.8</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>5.6</v>
       </c>
       <c r="I7" s="2">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>8.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>2.6</v>
       </c>
       <c r="I10" s="2">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1962,19 +1962,19 @@
         <v>28</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>71.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>28.6</v>
+        <v>3.6</v>
       </c>
       <c r="I11" s="2">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1997,19 +1997,19 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>91.3</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2032,19 +2032,19 @@
         <v>30</v>
       </c>
       <c r="E13">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>80</v>
+        <v>93.3</v>
       </c>
       <c r="H13" s="1">
-        <v>20</v>
+        <v>6.7</v>
       </c>
       <c r="I13" s="2">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2067,19 +2067,19 @@
         <v>11</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
-        <v>90.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="H14" s="1">
-        <v>9.1</v>
+        <v>18.2</v>
       </c>
       <c r="I14" s="2">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2099,19 +2099,19 @@
         <v>244</v>
       </c>
       <c r="E15">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F15">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1">
-        <v>91.8</v>
+        <v>96.7</v>
       </c>
       <c r="H15" s="1">
-        <v>8.199999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="I15" s="2">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>359</v>
       </c>
       <c r="E16">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="F16">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1">
-        <v>88.90000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>11.1</v>
+        <v>8.1</v>
       </c>
       <c r="I16" s="2">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J16">
         <v>0</v>

--- a/academias/Cultura Digital - Estadisticos 20242.xlsx
+++ b/academias/Cultura Digital - Estadisticos 20242.xlsx
@@ -1191,25 +1191,25 @@
         <v>35</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
+        <v>2.9</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="J5">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1223,25 +1223,25 @@
         <v>35</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>2.9</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="J6">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1564,25 +1564,25 @@
         <v>359</v>
       </c>
       <c r="E16">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="F16">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1">
-        <v>82.5</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>17.5</v>
+        <v>8.1</v>
       </c>
       <c r="I16" s="2">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="J16">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1767,7 +1767,7 @@
         <v>2.9</v>
       </c>
       <c r="I5" s="2">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>2.9</v>
       </c>
       <c r="I6" s="2">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J6">
         <v>0</v>
